--- a/RobotSimulation/Assets/ExportData/BuildDataSets/Results Analysis.xlsx
+++ b/RobotSimulation/Assets/ExportData/BuildDataSets/Results Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivo Tedbury\Documents\GitHub\ac18work\RobotSimulation\Assets\ExportData\BuildDataSets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB56501-A59D-4E2E-BFC1-932D24D29A28}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D33054E-3C6A-476D-87C6-01102EFCA102}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="8205" windowHeight="3563" xr2:uid="{4AE5023F-DC92-4E99-A783-92CF7B37D1E3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>totalBricks</t>
   </si>
@@ -73,13 +73,7 @@
     <t>ClimbingOut</t>
   </si>
   <si>
-    <t>ClimbingBack</t>
-  </si>
-  <si>
     <t>DistanceOut</t>
-  </si>
-  <si>
-    <t>DistanceBack</t>
   </si>
 </sst>
 </file>
@@ -506,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D30613F6-0812-49FA-A990-74A23FB47DEB}">
   <dimension ref="A1:I93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -597,12 +591,6 @@
       <c r="G11" t="s">
         <v>12</v>
       </c>
-      <c r="H11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="D12" s="6">
@@ -615,14 +603,9 @@
         <v>0</v>
       </c>
       <c r="G12" s="6">
-        <v>0</v>
-      </c>
-      <c r="H12" s="6">
         <v>4</v>
       </c>
-      <c r="I12" s="6">
-        <v>8</v>
-      </c>
+      <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="D13" s="7">
@@ -635,14 +618,9 @@
         <v>0</v>
       </c>
       <c r="G13" s="7">
-        <v>0</v>
-      </c>
-      <c r="H13" s="7">
         <v>8</v>
       </c>
-      <c r="I13" s="7">
-        <v>12</v>
-      </c>
+      <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="D14" s="6">
@@ -655,14 +633,9 @@
         <v>0</v>
       </c>
       <c r="G14" s="6">
-        <v>0</v>
-      </c>
-      <c r="H14" s="6">
         <v>12</v>
       </c>
-      <c r="I14" s="6">
-        <v>16</v>
-      </c>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="D15" s="7">
@@ -675,14 +648,9 @@
         <v>0</v>
       </c>
       <c r="G15" s="7">
-        <v>0</v>
-      </c>
-      <c r="H15" s="7">
-        <v>16</v>
-      </c>
-      <c r="I15" s="7">
-        <v>20</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="D16" s="6">
@@ -695,14 +663,9 @@
         <v>0</v>
       </c>
       <c r="G16" s="6">
-        <v>0</v>
-      </c>
-      <c r="H16" s="6">
         <v>20</v>
       </c>
-      <c r="I16" s="6">
-        <v>24</v>
-      </c>
+      <c r="I16" s="6"/>
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D17" s="7">
@@ -715,14 +678,9 @@
         <v>0</v>
       </c>
       <c r="G17" s="7">
-        <v>0</v>
-      </c>
-      <c r="H17" s="7">
         <v>24</v>
       </c>
-      <c r="I17" s="7">
-        <v>28</v>
-      </c>
+      <c r="I17" s="7"/>
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D18" s="6">
@@ -735,14 +693,9 @@
         <v>0</v>
       </c>
       <c r="G18" s="6">
-        <v>0</v>
-      </c>
-      <c r="H18" s="6">
         <v>28</v>
       </c>
-      <c r="I18" s="6">
-        <v>32</v>
-      </c>
+      <c r="I18" s="6"/>
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D19" s="7">
@@ -755,14 +708,9 @@
         <v>0</v>
       </c>
       <c r="G19" s="7">
-        <v>0</v>
-      </c>
-      <c r="H19" s="7">
         <v>32</v>
       </c>
-      <c r="I19" s="7">
-        <v>36</v>
-      </c>
+      <c r="I19" s="7"/>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D20" s="6">
@@ -775,14 +723,9 @@
         <v>0</v>
       </c>
       <c r="G20" s="6">
-        <v>0</v>
-      </c>
-      <c r="H20" s="6">
         <v>36</v>
       </c>
-      <c r="I20" s="6">
-        <v>40</v>
-      </c>
+      <c r="I20" s="6"/>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D21" s="7">
@@ -795,14 +738,9 @@
         <v>0</v>
       </c>
       <c r="G21" s="7">
-        <v>0</v>
-      </c>
-      <c r="H21" s="7">
         <v>40</v>
       </c>
-      <c r="I21" s="7">
-        <v>44</v>
-      </c>
+      <c r="I21" s="7"/>
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D22" s="6">
@@ -815,14 +753,9 @@
         <v>0</v>
       </c>
       <c r="G22" s="6">
-        <v>0</v>
-      </c>
-      <c r="H22" s="6">
         <v>44</v>
       </c>
-      <c r="I22" s="6">
-        <v>48</v>
-      </c>
+      <c r="I22" s="6"/>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D23" s="7">
@@ -835,14 +768,9 @@
         <v>0</v>
       </c>
       <c r="G23" s="7">
-        <v>0</v>
-      </c>
-      <c r="H23" s="7">
         <v>44</v>
       </c>
-      <c r="I23" s="7">
-        <v>48</v>
-      </c>
+      <c r="I23" s="7"/>
     </row>
     <row r="24" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D24" s="6">
@@ -855,14 +783,9 @@
         <v>0</v>
       </c>
       <c r="G24" s="6">
-        <v>0</v>
-      </c>
-      <c r="H24" s="6">
         <v>47</v>
       </c>
-      <c r="I24" s="6">
-        <v>51</v>
-      </c>
+      <c r="I24" s="6"/>
     </row>
     <row r="25" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D25" s="7">
@@ -875,14 +798,9 @@
         <v>0</v>
       </c>
       <c r="G25" s="7">
-        <v>0</v>
-      </c>
-      <c r="H25" s="7">
         <v>48</v>
       </c>
-      <c r="I25" s="7">
-        <v>52</v>
-      </c>
+      <c r="I25" s="7"/>
     </row>
     <row r="26" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D26" s="6">
@@ -895,14 +813,9 @@
         <v>0</v>
       </c>
       <c r="G26" s="6">
-        <v>0</v>
-      </c>
-      <c r="H26" s="6">
         <v>51</v>
       </c>
-      <c r="I26" s="6">
-        <v>55</v>
-      </c>
+      <c r="I26" s="6"/>
     </row>
     <row r="27" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D27" s="7">
@@ -915,14 +828,9 @@
         <v>0</v>
       </c>
       <c r="G27" s="7">
-        <v>0</v>
-      </c>
-      <c r="H27" s="7">
         <v>52</v>
       </c>
-      <c r="I27" s="7">
-        <v>56</v>
-      </c>
+      <c r="I27" s="7"/>
     </row>
     <row r="28" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D28" s="6">
@@ -935,14 +843,9 @@
         <v>0</v>
       </c>
       <c r="G28" s="6">
-        <v>0</v>
-      </c>
-      <c r="H28" s="6">
         <v>55</v>
       </c>
-      <c r="I28" s="6">
-        <v>59</v>
-      </c>
+      <c r="I28" s="6"/>
     </row>
     <row r="29" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D29" s="7">
@@ -955,14 +858,9 @@
         <v>0</v>
       </c>
       <c r="G29" s="7">
-        <v>0</v>
-      </c>
-      <c r="H29" s="7">
         <v>56</v>
       </c>
-      <c r="I29" s="7">
-        <v>60</v>
-      </c>
+      <c r="I29" s="7"/>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D30" s="6">
@@ -975,14 +873,9 @@
         <v>0</v>
       </c>
       <c r="G30" s="6">
-        <v>0</v>
-      </c>
-      <c r="H30" s="6">
         <v>59</v>
       </c>
-      <c r="I30" s="6">
-        <v>63</v>
-      </c>
+      <c r="I30" s="6"/>
     </row>
     <row r="31" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D31" s="7">
@@ -995,14 +888,9 @@
         <v>0</v>
       </c>
       <c r="G31" s="7">
-        <v>0</v>
-      </c>
-      <c r="H31" s="7">
         <v>60</v>
       </c>
-      <c r="I31" s="7">
-        <v>64</v>
-      </c>
+      <c r="I31" s="7"/>
     </row>
     <row r="32" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D32" s="6">
@@ -1015,14 +903,9 @@
         <v>0</v>
       </c>
       <c r="G32" s="6">
-        <v>0</v>
-      </c>
-      <c r="H32" s="6">
         <v>60</v>
       </c>
-      <c r="I32" s="6">
-        <v>64</v>
-      </c>
+      <c r="I32" s="6"/>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D33" s="7">
@@ -1035,14 +918,9 @@
         <v>0</v>
       </c>
       <c r="G33" s="7">
-        <v>0</v>
-      </c>
-      <c r="H33" s="7">
         <v>63</v>
       </c>
-      <c r="I33" s="7">
-        <v>67</v>
-      </c>
+      <c r="I33" s="7"/>
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D34" s="6">
@@ -1055,14 +933,9 @@
         <v>0</v>
       </c>
       <c r="G34" s="6">
-        <v>0</v>
-      </c>
-      <c r="H34" s="6">
         <v>61</v>
       </c>
-      <c r="I34" s="6">
-        <v>65</v>
-      </c>
+      <c r="I34" s="6"/>
     </row>
     <row r="35" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D35" s="7">
@@ -1075,14 +948,9 @@
         <v>0</v>
       </c>
       <c r="G35" s="7">
-        <v>0</v>
-      </c>
-      <c r="H35" s="7">
         <v>61</v>
       </c>
-      <c r="I35" s="7">
-        <v>65</v>
-      </c>
+      <c r="I35" s="7"/>
     </row>
     <row r="36" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D36" s="6">
@@ -1095,14 +963,9 @@
         <v>0</v>
       </c>
       <c r="G36" s="6">
-        <v>0</v>
-      </c>
-      <c r="H36" s="6">
         <v>61</v>
       </c>
-      <c r="I36" s="6">
-        <v>65</v>
-      </c>
+      <c r="I36" s="6"/>
     </row>
     <row r="37" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D37" s="7">
@@ -1115,14 +978,9 @@
         <v>0</v>
       </c>
       <c r="G37" s="7">
-        <v>0</v>
-      </c>
-      <c r="H37" s="7">
         <v>59</v>
       </c>
-      <c r="I37" s="7">
-        <v>63</v>
-      </c>
+      <c r="I37" s="7"/>
     </row>
     <row r="38" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D38" s="6">
@@ -1135,14 +993,9 @@
         <v>0</v>
       </c>
       <c r="G38" s="6">
-        <v>0</v>
-      </c>
-      <c r="H38" s="6">
         <v>57</v>
       </c>
-      <c r="I38" s="6">
-        <v>61</v>
-      </c>
+      <c r="I38" s="6"/>
     </row>
     <row r="39" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D39" s="7">
@@ -1155,14 +1008,9 @@
         <v>0</v>
       </c>
       <c r="G39" s="7">
-        <v>0</v>
-      </c>
-      <c r="H39" s="7">
         <v>55</v>
       </c>
-      <c r="I39" s="7">
-        <v>59</v>
-      </c>
+      <c r="I39" s="7"/>
     </row>
     <row r="40" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D40" s="6">
@@ -1175,14 +1023,9 @@
         <v>0</v>
       </c>
       <c r="G40" s="6">
-        <v>0</v>
-      </c>
-      <c r="H40" s="6">
         <v>53</v>
       </c>
-      <c r="I40" s="6">
-        <v>57</v>
-      </c>
+      <c r="I40" s="6"/>
     </row>
     <row r="41" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D41" s="7">
@@ -1195,14 +1038,9 @@
         <v>0</v>
       </c>
       <c r="G41" s="7">
-        <v>0</v>
-      </c>
-      <c r="H41" s="7">
         <v>51</v>
       </c>
-      <c r="I41" s="7">
-        <v>55</v>
-      </c>
+      <c r="I41" s="7"/>
     </row>
     <row r="42" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D42" s="6">
@@ -1215,14 +1053,9 @@
         <v>0</v>
       </c>
       <c r="G42" s="6">
-        <v>0</v>
-      </c>
-      <c r="H42" s="6">
         <v>49</v>
       </c>
-      <c r="I42" s="6">
-        <v>53</v>
-      </c>
+      <c r="I42" s="6"/>
     </row>
     <row r="43" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D43" s="7">
@@ -1235,14 +1068,9 @@
         <v>0</v>
       </c>
       <c r="G43" s="7">
-        <v>0</v>
-      </c>
-      <c r="H43" s="7">
         <v>47</v>
       </c>
-      <c r="I43" s="7">
-        <v>51</v>
-      </c>
+      <c r="I43" s="7"/>
     </row>
     <row r="44" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D44" s="6">
@@ -1255,14 +1083,9 @@
         <v>0</v>
       </c>
       <c r="G44" s="6">
-        <v>0</v>
-      </c>
-      <c r="H44" s="6">
         <v>45</v>
       </c>
-      <c r="I44" s="6">
-        <v>49</v>
-      </c>
+      <c r="I44" s="6"/>
     </row>
     <row r="45" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D45" s="7">
@@ -1275,14 +1098,9 @@
         <v>0</v>
       </c>
       <c r="G45" s="7">
-        <v>0</v>
-      </c>
-      <c r="H45" s="7">
         <v>43</v>
       </c>
-      <c r="I45" s="7">
-        <v>47</v>
-      </c>
+      <c r="I45" s="7"/>
     </row>
     <row r="46" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D46" s="6">
@@ -1295,14 +1113,9 @@
         <v>0</v>
       </c>
       <c r="G46" s="6">
-        <v>0</v>
-      </c>
-      <c r="H46" s="6">
         <v>40</v>
       </c>
-      <c r="I46" s="6">
-        <v>44</v>
-      </c>
+      <c r="I46" s="6"/>
     </row>
     <row r="47" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D47" s="7">
@@ -1315,14 +1128,9 @@
         <v>0</v>
       </c>
       <c r="G47" s="7">
-        <v>0</v>
-      </c>
-      <c r="H47" s="7">
         <v>36</v>
       </c>
-      <c r="I47" s="7">
-        <v>40</v>
-      </c>
+      <c r="I47" s="7"/>
     </row>
     <row r="48" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D48" s="6">
@@ -1335,14 +1143,9 @@
         <v>0</v>
       </c>
       <c r="G48" s="6">
-        <v>0</v>
-      </c>
-      <c r="H48" s="6">
         <v>32</v>
       </c>
-      <c r="I48" s="6">
-        <v>36</v>
-      </c>
+      <c r="I48" s="6"/>
     </row>
     <row r="49" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D49" s="7">
@@ -1355,14 +1158,9 @@
         <v>0</v>
       </c>
       <c r="G49" s="7">
-        <v>0</v>
-      </c>
-      <c r="H49" s="7">
         <v>28</v>
       </c>
-      <c r="I49" s="7">
-        <v>32</v>
-      </c>
+      <c r="I49" s="7"/>
     </row>
     <row r="50" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D50" s="6">
@@ -1375,14 +1173,9 @@
         <v>0</v>
       </c>
       <c r="G50" s="6">
-        <v>0</v>
-      </c>
-      <c r="H50" s="6">
         <v>24</v>
       </c>
-      <c r="I50" s="6">
-        <v>28</v>
-      </c>
+      <c r="I50" s="6"/>
     </row>
     <row r="51" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D51" s="7">
@@ -1395,14 +1188,9 @@
         <v>0</v>
       </c>
       <c r="G51" s="7">
-        <v>0</v>
-      </c>
-      <c r="H51" s="7">
         <v>20</v>
       </c>
-      <c r="I51" s="7">
-        <v>24</v>
-      </c>
+      <c r="I51" s="7"/>
     </row>
     <row r="52" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D52" s="6">
@@ -1415,14 +1203,9 @@
         <v>1</v>
       </c>
       <c r="G52" s="6">
-        <v>-1</v>
-      </c>
-      <c r="H52" s="6">
         <v>62</v>
       </c>
-      <c r="I52" s="6">
-        <v>66</v>
-      </c>
+      <c r="I52" s="6"/>
     </row>
     <row r="53" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D53" s="7">
@@ -1435,14 +1218,9 @@
         <v>1</v>
       </c>
       <c r="G53" s="7">
-        <v>-1</v>
-      </c>
-      <c r="H53" s="7">
         <v>61</v>
       </c>
-      <c r="I53" s="7">
-        <v>65</v>
-      </c>
+      <c r="I53" s="7"/>
     </row>
     <row r="54" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D54" s="6">
@@ -1455,14 +1233,9 @@
         <v>1</v>
       </c>
       <c r="G54" s="6">
-        <v>-1</v>
-      </c>
-      <c r="H54" s="6">
         <v>61</v>
       </c>
-      <c r="I54" s="6">
-        <v>65</v>
-      </c>
+      <c r="I54" s="6"/>
     </row>
     <row r="55" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D55" s="7">
@@ -1475,14 +1248,9 @@
         <v>1</v>
       </c>
       <c r="G55" s="7">
-        <v>-1</v>
-      </c>
-      <c r="H55" s="7">
         <v>59</v>
       </c>
-      <c r="I55" s="7">
-        <v>63</v>
-      </c>
+      <c r="I55" s="7"/>
     </row>
     <row r="56" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D56" s="6">
@@ -1495,14 +1263,9 @@
         <v>1</v>
       </c>
       <c r="G56" s="6">
-        <v>-1</v>
-      </c>
-      <c r="H56" s="6">
         <v>57</v>
       </c>
-      <c r="I56" s="6">
-        <v>61</v>
-      </c>
+      <c r="I56" s="6"/>
     </row>
     <row r="57" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D57" s="7">
@@ -1515,14 +1278,9 @@
         <v>1</v>
       </c>
       <c r="G57" s="7">
-        <v>-1</v>
-      </c>
-      <c r="H57" s="7">
         <v>55</v>
       </c>
-      <c r="I57" s="7">
-        <v>59</v>
-      </c>
+      <c r="I57" s="7"/>
     </row>
     <row r="58" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D58" s="6">
@@ -1535,14 +1293,9 @@
         <v>1</v>
       </c>
       <c r="G58" s="6">
-        <v>-1</v>
-      </c>
-      <c r="H58" s="6">
         <v>53</v>
       </c>
-      <c r="I58" s="6">
-        <v>57</v>
-      </c>
+      <c r="I58" s="6"/>
     </row>
     <row r="59" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D59" s="7">
@@ -1555,14 +1308,9 @@
         <v>1</v>
       </c>
       <c r="G59" s="7">
-        <v>-1</v>
-      </c>
-      <c r="H59" s="7">
         <v>51</v>
       </c>
-      <c r="I59" s="7">
-        <v>55</v>
-      </c>
+      <c r="I59" s="7"/>
     </row>
     <row r="60" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D60" s="6">
@@ -1575,14 +1323,9 @@
         <v>1</v>
       </c>
       <c r="G60" s="6">
-        <v>-1</v>
-      </c>
-      <c r="H60" s="6">
         <v>49</v>
       </c>
-      <c r="I60" s="6">
-        <v>53</v>
-      </c>
+      <c r="I60" s="6"/>
     </row>
     <row r="61" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D61" s="7">
@@ -1595,14 +1338,9 @@
         <v>1</v>
       </c>
       <c r="G61" s="7">
-        <v>-1</v>
-      </c>
-      <c r="H61" s="7">
         <v>47</v>
       </c>
-      <c r="I61" s="7">
-        <v>51</v>
-      </c>
+      <c r="I61" s="7"/>
     </row>
     <row r="62" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D62" s="6">
@@ -1615,14 +1353,9 @@
         <v>1</v>
       </c>
       <c r="G62" s="6">
-        <v>-1</v>
-      </c>
-      <c r="H62" s="6">
         <v>44</v>
       </c>
-      <c r="I62" s="6">
-        <v>48</v>
-      </c>
+      <c r="I62" s="6"/>
     </row>
     <row r="63" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D63" s="7">
@@ -1635,14 +1368,9 @@
         <v>1</v>
       </c>
       <c r="G63" s="7">
-        <v>-1</v>
-      </c>
-      <c r="H63" s="7">
         <v>44</v>
       </c>
-      <c r="I63" s="7">
-        <v>48</v>
-      </c>
+      <c r="I63" s="7"/>
     </row>
     <row r="64" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D64" s="6">
@@ -1655,14 +1383,9 @@
         <v>1</v>
       </c>
       <c r="G64" s="6">
-        <v>-1</v>
-      </c>
-      <c r="H64" s="6">
         <v>40</v>
       </c>
-      <c r="I64" s="6">
-        <v>44</v>
-      </c>
+      <c r="I64" s="6"/>
     </row>
     <row r="65" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D65" s="7">
@@ -1675,14 +1398,9 @@
         <v>1</v>
       </c>
       <c r="G65" s="7">
-        <v>-1</v>
-      </c>
-      <c r="H65" s="7">
         <v>36</v>
       </c>
-      <c r="I65" s="7">
-        <v>40</v>
-      </c>
+      <c r="I65" s="7"/>
     </row>
     <row r="66" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D66" s="6">
@@ -1695,14 +1413,9 @@
         <v>1</v>
       </c>
       <c r="G66" s="6">
-        <v>-1</v>
-      </c>
-      <c r="H66" s="6">
         <v>32</v>
       </c>
-      <c r="I66" s="6">
-        <v>36</v>
-      </c>
+      <c r="I66" s="6"/>
     </row>
     <row r="67" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D67" s="7">
@@ -1715,14 +1428,9 @@
         <v>1</v>
       </c>
       <c r="G67" s="7">
-        <v>-1</v>
-      </c>
-      <c r="H67" s="7">
         <v>28</v>
       </c>
-      <c r="I67" s="7">
-        <v>32</v>
-      </c>
+      <c r="I67" s="7"/>
     </row>
     <row r="68" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D68" s="6">
@@ -1735,14 +1443,9 @@
         <v>2</v>
       </c>
       <c r="G68" s="6">
-        <v>-2</v>
-      </c>
-      <c r="H68" s="6">
         <v>61</v>
       </c>
-      <c r="I68" s="6">
-        <v>65</v>
-      </c>
+      <c r="I68" s="6"/>
     </row>
     <row r="69" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D69" s="7">
@@ -1755,14 +1458,9 @@
         <v>2</v>
       </c>
       <c r="G69" s="7">
-        <v>-2</v>
-      </c>
-      <c r="H69" s="7">
         <v>61</v>
       </c>
-      <c r="I69" s="7">
-        <v>65</v>
-      </c>
+      <c r="I69" s="7"/>
     </row>
     <row r="70" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D70" s="6">
@@ -1775,14 +1473,9 @@
         <v>2</v>
       </c>
       <c r="G70" s="6">
-        <v>-2</v>
-      </c>
-      <c r="H70" s="6">
         <v>61</v>
       </c>
-      <c r="I70" s="6">
-        <v>65</v>
-      </c>
+      <c r="I70" s="6"/>
     </row>
     <row r="71" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D71" s="7">
@@ -1795,14 +1488,9 @@
         <v>2</v>
       </c>
       <c r="G71" s="7">
-        <v>-2</v>
-      </c>
-      <c r="H71" s="7">
         <v>59</v>
       </c>
-      <c r="I71" s="7">
-        <v>63</v>
-      </c>
+      <c r="I71" s="7"/>
     </row>
     <row r="72" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D72" s="6">
@@ -1815,14 +1503,9 @@
         <v>2</v>
       </c>
       <c r="G72" s="6">
-        <v>-2</v>
-      </c>
-      <c r="H72" s="6">
         <v>57</v>
       </c>
-      <c r="I72" s="6">
-        <v>61</v>
-      </c>
+      <c r="I72" s="6"/>
     </row>
     <row r="73" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D73" s="7">
@@ -1835,14 +1518,9 @@
         <v>2</v>
       </c>
       <c r="G73" s="7">
-        <v>-2</v>
-      </c>
-      <c r="H73" s="7">
         <v>55</v>
       </c>
-      <c r="I73" s="7">
-        <v>59</v>
-      </c>
+      <c r="I73" s="7"/>
     </row>
     <row r="74" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D74" s="6">
@@ -1855,14 +1533,9 @@
         <v>2</v>
       </c>
       <c r="G74" s="6">
-        <v>-2</v>
-      </c>
-      <c r="H74" s="6">
         <v>53</v>
       </c>
-      <c r="I74" s="6">
-        <v>57</v>
-      </c>
+      <c r="I74" s="6"/>
     </row>
     <row r="75" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D75" s="7">
@@ -1875,14 +1548,9 @@
         <v>2</v>
       </c>
       <c r="G75" s="7">
-        <v>-2</v>
-      </c>
-      <c r="H75" s="7">
         <v>51</v>
       </c>
-      <c r="I75" s="7">
-        <v>55</v>
-      </c>
+      <c r="I75" s="7"/>
     </row>
     <row r="76" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D76" s="6">
@@ -1895,14 +1563,9 @@
         <v>2</v>
       </c>
       <c r="G76" s="6">
-        <v>-2</v>
-      </c>
-      <c r="H76" s="6">
         <v>49</v>
       </c>
-      <c r="I76" s="6">
-        <v>53</v>
-      </c>
+      <c r="I76" s="6"/>
     </row>
     <row r="77" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D77" s="7">
@@ -1915,14 +1578,9 @@
         <v>2</v>
       </c>
       <c r="G77" s="7">
-        <v>-2</v>
-      </c>
-      <c r="H77" s="7">
         <v>47</v>
       </c>
-      <c r="I77" s="7">
-        <v>51</v>
-      </c>
+      <c r="I77" s="7"/>
     </row>
     <row r="78" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D78" s="6">
@@ -1935,14 +1593,9 @@
         <v>2</v>
       </c>
       <c r="G78" s="6">
-        <v>-2</v>
-      </c>
-      <c r="H78" s="6">
         <v>45</v>
       </c>
-      <c r="I78" s="6">
-        <v>49</v>
-      </c>
+      <c r="I78" s="6"/>
     </row>
     <row r="79" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D79" s="7">
@@ -1955,14 +1608,9 @@
         <v>2</v>
       </c>
       <c r="G79" s="7">
-        <v>-2</v>
-      </c>
-      <c r="H79" s="7">
         <v>43</v>
       </c>
-      <c r="I79" s="7">
-        <v>47</v>
-      </c>
+      <c r="I79" s="7"/>
     </row>
     <row r="80" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D80" s="6">
@@ -1975,14 +1623,9 @@
         <v>2</v>
       </c>
       <c r="G80" s="6">
-        <v>-2</v>
-      </c>
-      <c r="H80" s="6">
         <v>40</v>
       </c>
-      <c r="I80" s="6">
-        <v>44</v>
-      </c>
+      <c r="I80" s="6"/>
     </row>
     <row r="81" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D81" s="7">
@@ -1995,14 +1638,9 @@
         <v>2</v>
       </c>
       <c r="G81" s="7">
-        <v>-2</v>
-      </c>
-      <c r="H81" s="7">
         <v>36</v>
       </c>
-      <c r="I81" s="7">
-        <v>40</v>
-      </c>
+      <c r="I81" s="7"/>
     </row>
     <row r="82" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D82" s="6">
@@ -2015,14 +1653,9 @@
         <v>3</v>
       </c>
       <c r="G82" s="6">
-        <v>-3</v>
-      </c>
-      <c r="H82" s="6">
         <v>62</v>
       </c>
-      <c r="I82" s="6">
-        <v>66</v>
-      </c>
+      <c r="I82" s="6"/>
     </row>
     <row r="83" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D83" s="7">
@@ -2035,14 +1668,9 @@
         <v>3</v>
       </c>
       <c r="G83" s="7">
-        <v>-3</v>
-      </c>
-      <c r="H83" s="7">
         <v>61</v>
       </c>
-      <c r="I83" s="7">
-        <v>65</v>
-      </c>
+      <c r="I83" s="7"/>
     </row>
     <row r="84" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D84" s="6">
@@ -2055,14 +1683,9 @@
         <v>3</v>
       </c>
       <c r="G84" s="6">
-        <v>-3</v>
-      </c>
-      <c r="H84" s="6">
         <v>61</v>
       </c>
-      <c r="I84" s="6">
-        <v>65</v>
-      </c>
+      <c r="I84" s="6"/>
     </row>
     <row r="85" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D85" s="7">
@@ -2075,14 +1698,9 @@
         <v>3</v>
       </c>
       <c r="G85" s="7">
-        <v>-3</v>
-      </c>
-      <c r="H85" s="7">
         <v>59</v>
       </c>
-      <c r="I85" s="7">
-        <v>63</v>
-      </c>
+      <c r="I85" s="7"/>
     </row>
     <row r="86" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D86" s="6">
@@ -2095,14 +1713,9 @@
         <v>3</v>
       </c>
       <c r="G86" s="6">
-        <v>-3</v>
-      </c>
-      <c r="H86" s="6">
         <v>57</v>
       </c>
-      <c r="I86" s="6">
-        <v>61</v>
-      </c>
+      <c r="I86" s="6"/>
     </row>
     <row r="87" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D87" s="7">
@@ -2115,14 +1728,9 @@
         <v>3</v>
       </c>
       <c r="G87" s="7">
-        <v>-3</v>
-      </c>
-      <c r="H87" s="7">
         <v>55</v>
       </c>
-      <c r="I87" s="7">
-        <v>59</v>
-      </c>
+      <c r="I87" s="7"/>
     </row>
     <row r="88" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D88" s="6">
@@ -2135,14 +1743,9 @@
         <v>3</v>
       </c>
       <c r="G88" s="6">
-        <v>-3</v>
-      </c>
-      <c r="H88" s="6">
         <v>53</v>
       </c>
-      <c r="I88" s="6">
-        <v>57</v>
-      </c>
+      <c r="I88" s="6"/>
     </row>
     <row r="89" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D89" s="7">
@@ -2155,14 +1758,9 @@
         <v>3</v>
       </c>
       <c r="G89" s="7">
-        <v>-3</v>
-      </c>
-      <c r="H89" s="7">
         <v>51</v>
       </c>
-      <c r="I89" s="7">
-        <v>55</v>
-      </c>
+      <c r="I89" s="7"/>
     </row>
     <row r="90" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D90" s="6">
@@ -2175,14 +1773,9 @@
         <v>3</v>
       </c>
       <c r="G90" s="6">
-        <v>-3</v>
-      </c>
-      <c r="H90" s="6">
         <v>49</v>
       </c>
-      <c r="I90" s="6">
-        <v>53</v>
-      </c>
+      <c r="I90" s="6"/>
     </row>
     <row r="91" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D91" s="7">
@@ -2195,14 +1788,9 @@
         <v>3</v>
       </c>
       <c r="G91" s="7">
-        <v>-3</v>
-      </c>
-      <c r="H91" s="7">
         <v>47</v>
       </c>
-      <c r="I91" s="7">
-        <v>51</v>
-      </c>
+      <c r="I91" s="7"/>
     </row>
     <row r="92" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D92" s="6">
@@ -2215,14 +1803,9 @@
         <v>3</v>
       </c>
       <c r="G92" s="6">
-        <v>-3</v>
-      </c>
-      <c r="H92" s="6">
         <v>44</v>
       </c>
-      <c r="I92" s="6">
-        <v>48</v>
-      </c>
+      <c r="I92" s="6"/>
     </row>
     <row r="93" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D93" s="7">
@@ -2235,14 +1818,9 @@
         <v>3</v>
       </c>
       <c r="G93" s="7">
-        <v>-3</v>
-      </c>
-      <c r="H93" s="7">
         <v>44</v>
       </c>
-      <c r="I93" s="7">
-        <v>48</v>
-      </c>
+      <c r="I93" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RobotSimulation/Assets/ExportData/BuildDataSets/Results Analysis.xlsx
+++ b/RobotSimulation/Assets/ExportData/BuildDataSets/Results Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivo Tedbury\Documents\GitHub\ac18work\RobotSimulation\Assets\ExportData\BuildDataSets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F38668-5D3A-46DD-971D-2F04E97BB611}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9AD7142-51C6-40FB-94D1-27C827695A03}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="8205" windowHeight="3563" firstSheet="3" activeTab="11" xr2:uid="{4AE5023F-DC92-4E99-A783-92CF7B37D1E3}"/>
   </bookViews>
@@ -1527,7 +1527,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>27821.754000000001</c:v>
+                  <c:v>25407.636999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3078,21 +3078,6 @@
                 <c:pt idx="76">
                   <c:v>77</c:v>
                 </c:pt>
-                <c:pt idx="77">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>82</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3163,189 +3148,174 @@
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>60</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>63</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>61</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="40">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="53">
                   <c:v>61</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="54">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="55">
                   <c:v>59</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="56">
                   <c:v>57</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="57">
                   <c:v>55</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="58">
                   <c:v>53</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="59">
                   <c:v>51</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="60">
                   <c:v>49</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="61">
                   <c:v>47</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="62">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="63">
                   <c:v>43</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="64">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="65">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="36">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="66">
                   <c:v>62</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="67">
                   <c:v>61</c:v>
                 </c:pt>
-                <c:pt idx="42">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="68">
                   <c:v>59</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="69">
                   <c:v>57</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="70">
                   <c:v>55</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="71">
                   <c:v>53</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="72">
                   <c:v>51</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="73">
                   <c:v>49</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="74">
                   <c:v>47</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="75">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="51">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>55</c:v>
-                </c:pt>
                 <c:pt idx="76">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="81">
                   <c:v>44</c:v>
                 </c:pt>
               </c:numCache>
@@ -6190,21 +6160,6 @@
                 <c:pt idx="76">
                   <c:v>77</c:v>
                 </c:pt>
-                <c:pt idx="77">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>82</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6275,189 +6230,174 @@
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>60</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>63</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>61</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="40">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="53">
                   <c:v>61</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="54">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="55">
                   <c:v>59</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="56">
                   <c:v>57</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="57">
                   <c:v>55</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="58">
                   <c:v>53</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="59">
                   <c:v>51</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="60">
                   <c:v>49</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="61">
                   <c:v>47</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="62">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="63">
                   <c:v>43</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="64">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="65">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="36">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="66">
                   <c:v>62</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="67">
                   <c:v>61</c:v>
                 </c:pt>
-                <c:pt idx="42">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="68">
                   <c:v>59</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="69">
                   <c:v>57</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="70">
                   <c:v>55</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="71">
                   <c:v>53</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="72">
                   <c:v>51</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="73">
                   <c:v>49</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="74">
                   <c:v>47</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="75">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="51">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>55</c:v>
-                </c:pt>
                 <c:pt idx="76">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="81">
                   <c:v>44</c:v>
                 </c:pt>
               </c:numCache>
@@ -6776,7 +6716,7 @@
                   <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>80</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>70</c:v>
@@ -9736,7 +9676,7 @@
                   <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>80</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>70</c:v>
@@ -14814,8 +14754,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.79574655696476171"/>
-          <c:y val="0.25008262169417728"/>
+          <c:x val="0.80703765960195972"/>
+          <c:y val="0.25008272756759781"/>
           <c:w val="0.17178888542290854"/>
           <c:h val="0.4935747307986813"/>
         </c:manualLayout>
@@ -19851,8 +19791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D30613F6-0812-49FA-A990-74A23FB47DEB}">
   <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:C93"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -19873,7 +19813,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
@@ -19889,7 +19829,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
@@ -19897,7 +19837,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
@@ -19929,31 +19869,31 @@
         <v>8</v>
       </c>
       <c r="B9" s="8">
-        <v>27821.754000000001</v>
+        <v>25407.636999999999</v>
       </c>
       <c r="C9">
         <f>B9/3600</f>
-        <v>7.7282650000000004</v>
+        <v>7.0576769444444443</v>
       </c>
       <c r="D9">
         <f>B9*110/85</f>
-        <v>36004.622823529411</v>
+        <v>32880.471411764702</v>
       </c>
       <c r="E9">
         <f>D9/4</f>
-        <v>9001.1557058823528</v>
+        <v>8220.1178529411754</v>
       </c>
       <c r="F9">
         <f>E9/4</f>
-        <v>2250.2889264705882</v>
+        <v>2055.0294632352939</v>
       </c>
       <c r="G9">
         <f>F9/60</f>
-        <v>37.504815441176468</v>
+        <v>34.250491053921564</v>
       </c>
       <c r="H9">
         <f>F9/3600</f>
-        <v>0.62508025735294115</v>
+        <v>0.57084151756535939</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
@@ -20261,13 +20201,13 @@
         <v>21</v>
       </c>
       <c r="D32" s="6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E32" s="6">
         <v>0</v>
       </c>
       <c r="F32" s="6">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.45">
@@ -20281,7 +20221,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="7">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.45">
@@ -20303,13 +20243,13 @@
         <v>24</v>
       </c>
       <c r="D35" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E35" s="7">
         <v>0</v>
       </c>
       <c r="F35" s="7">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.45">
@@ -20317,13 +20257,13 @@
         <v>25</v>
       </c>
       <c r="D36" s="6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E36" s="6">
         <v>0</v>
       </c>
       <c r="F36" s="6">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.45">
@@ -20331,13 +20271,13 @@
         <v>26</v>
       </c>
       <c r="D37" s="7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E37" s="7">
         <v>0</v>
       </c>
       <c r="F37" s="7">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.45">
@@ -20345,13 +20285,13 @@
         <v>27</v>
       </c>
       <c r="D38" s="6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E38" s="6">
         <v>0</v>
       </c>
       <c r="F38" s="6">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.45">
@@ -20359,13 +20299,13 @@
         <v>28</v>
       </c>
       <c r="D39" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E39" s="7">
         <v>0</v>
       </c>
       <c r="F39" s="7">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.45">
@@ -20373,13 +20313,13 @@
         <v>29</v>
       </c>
       <c r="D40" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E40" s="6">
         <v>0</v>
       </c>
       <c r="F40" s="6">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.45">
@@ -20387,13 +20327,13 @@
         <v>30</v>
       </c>
       <c r="D41" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E41" s="7">
         <v>0</v>
       </c>
       <c r="F41" s="7">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.45">
@@ -20401,13 +20341,13 @@
         <v>31</v>
       </c>
       <c r="D42" s="6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E42" s="6">
         <v>0</v>
       </c>
       <c r="F42" s="6">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.45">
@@ -20415,13 +20355,13 @@
         <v>32</v>
       </c>
       <c r="D43" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E43" s="7">
         <v>0</v>
       </c>
       <c r="F43" s="7">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.45">
@@ -20429,13 +20369,13 @@
         <v>33</v>
       </c>
       <c r="D44" s="6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E44" s="6">
         <v>0</v>
       </c>
       <c r="F44" s="6">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="3:6" x14ac:dyDescent="0.45">
@@ -20443,13 +20383,13 @@
         <v>34</v>
       </c>
       <c r="D45" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E45" s="7">
         <v>0</v>
       </c>
       <c r="F45" s="7">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="3:6" x14ac:dyDescent="0.45">
@@ -20457,13 +20397,13 @@
         <v>35</v>
       </c>
       <c r="D46" s="6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E46" s="6">
         <v>0</v>
       </c>
       <c r="F46" s="6">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.45">
@@ -20471,13 +20411,13 @@
         <v>36</v>
       </c>
       <c r="D47" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E47" s="7">
         <v>0</v>
       </c>
       <c r="F47" s="7">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="3:6" x14ac:dyDescent="0.45">
@@ -20485,13 +20425,13 @@
         <v>37</v>
       </c>
       <c r="D48" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E48" s="6">
         <v>0</v>
       </c>
       <c r="F48" s="6">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.45">
@@ -20499,13 +20439,13 @@
         <v>38</v>
       </c>
       <c r="D49" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E49" s="7">
         <v>0</v>
       </c>
       <c r="F49" s="7">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.45">
@@ -20513,13 +20453,13 @@
         <v>39</v>
       </c>
       <c r="D50" s="6">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E50" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" s="6">
-        <v>24</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="3:6" x14ac:dyDescent="0.45">
@@ -20527,13 +20467,13 @@
         <v>40</v>
       </c>
       <c r="D51" s="7">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E51" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" s="7">
-        <v>20</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.45">
@@ -20541,13 +20481,13 @@
         <v>41</v>
       </c>
       <c r="D52" s="6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E52" s="6">
         <v>1</v>
       </c>
       <c r="F52" s="6">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="3:6" x14ac:dyDescent="0.45">
@@ -20555,13 +20495,13 @@
         <v>42</v>
       </c>
       <c r="D53" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E53" s="7">
         <v>1</v>
       </c>
       <c r="F53" s="7">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="3:6" x14ac:dyDescent="0.45">
@@ -20569,13 +20509,13 @@
         <v>43</v>
       </c>
       <c r="D54" s="6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E54" s="6">
         <v>1</v>
       </c>
       <c r="F54" s="6">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="3:6" x14ac:dyDescent="0.45">
@@ -20583,13 +20523,13 @@
         <v>44</v>
       </c>
       <c r="D55" s="7">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E55" s="7">
         <v>1</v>
       </c>
       <c r="F55" s="7">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="3:6" x14ac:dyDescent="0.45">
@@ -20597,13 +20537,13 @@
         <v>45</v>
       </c>
       <c r="D56" s="6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E56" s="6">
         <v>1</v>
       </c>
       <c r="F56" s="6">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="3:6" x14ac:dyDescent="0.45">
@@ -20611,13 +20551,13 @@
         <v>46</v>
       </c>
       <c r="D57" s="7">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E57" s="7">
         <v>1</v>
       </c>
       <c r="F57" s="7">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58" spans="3:6" x14ac:dyDescent="0.45">
@@ -20625,13 +20565,13 @@
         <v>47</v>
       </c>
       <c r="D58" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E58" s="6">
         <v>1</v>
       </c>
       <c r="F58" s="6">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="59" spans="3:6" x14ac:dyDescent="0.45">
@@ -20639,13 +20579,13 @@
         <v>48</v>
       </c>
       <c r="D59" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E59" s="7">
         <v>1</v>
       </c>
       <c r="F59" s="7">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" spans="3:6" x14ac:dyDescent="0.45">
@@ -20653,13 +20593,13 @@
         <v>49</v>
       </c>
       <c r="D60" s="6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E60" s="6">
         <v>1</v>
       </c>
       <c r="F60" s="6">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61" spans="3:6" x14ac:dyDescent="0.45">
@@ -20667,13 +20607,13 @@
         <v>50</v>
       </c>
       <c r="D61" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E61" s="7">
         <v>1</v>
       </c>
       <c r="F61" s="7">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" spans="3:6" x14ac:dyDescent="0.45">
@@ -20681,13 +20621,13 @@
         <v>51</v>
       </c>
       <c r="D62" s="6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E62" s="6">
         <v>1</v>
       </c>
       <c r="F62" s="6">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63" spans="3:6" x14ac:dyDescent="0.45">
@@ -20695,13 +20635,13 @@
         <v>52</v>
       </c>
       <c r="D63" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E63" s="7">
         <v>1</v>
       </c>
       <c r="F63" s="7">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" spans="3:6" x14ac:dyDescent="0.45">
@@ -20709,13 +20649,13 @@
         <v>53</v>
       </c>
       <c r="D64" s="6">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E64" s="6">
         <v>1</v>
       </c>
       <c r="F64" s="6">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" spans="3:6" x14ac:dyDescent="0.45">
@@ -20723,13 +20663,13 @@
         <v>54</v>
       </c>
       <c r="D65" s="7">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E65" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F65" s="7">
-        <v>36</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66" spans="3:6" x14ac:dyDescent="0.45">
@@ -20737,13 +20677,13 @@
         <v>55</v>
       </c>
       <c r="D66" s="6">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E66" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F66" s="6">
-        <v>32</v>
+        <v>61</v>
       </c>
     </row>
     <row r="67" spans="3:6" x14ac:dyDescent="0.45">
@@ -20751,13 +20691,13 @@
         <v>56</v>
       </c>
       <c r="D67" s="7">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E67" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F67" s="7">
-        <v>28</v>
+        <v>59</v>
       </c>
     </row>
     <row r="68" spans="3:6" x14ac:dyDescent="0.45">
@@ -20765,13 +20705,13 @@
         <v>57</v>
       </c>
       <c r="D68" s="6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E68" s="6">
         <v>2</v>
       </c>
       <c r="F68" s="6">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="3:6" x14ac:dyDescent="0.45">
@@ -20779,13 +20719,13 @@
         <v>58</v>
       </c>
       <c r="D69" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E69" s="7">
         <v>2</v>
       </c>
       <c r="F69" s="7">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="70" spans="3:6" x14ac:dyDescent="0.45">
@@ -20793,13 +20733,13 @@
         <v>59</v>
       </c>
       <c r="D70" s="6">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E70" s="6">
         <v>2</v>
       </c>
       <c r="F70" s="6">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="71" spans="3:6" x14ac:dyDescent="0.45">
@@ -20807,13 +20747,13 @@
         <v>60</v>
       </c>
       <c r="D71" s="7">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E71" s="7">
         <v>2</v>
       </c>
       <c r="F71" s="7">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="72" spans="3:6" x14ac:dyDescent="0.45">
@@ -20821,13 +20761,13 @@
         <v>61</v>
       </c>
       <c r="D72" s="6">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E72" s="6">
         <v>2</v>
       </c>
       <c r="F72" s="6">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="73" spans="3:6" x14ac:dyDescent="0.45">
@@ -20835,13 +20775,13 @@
         <v>62</v>
       </c>
       <c r="D73" s="7">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E73" s="7">
         <v>2</v>
       </c>
       <c r="F73" s="7">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="74" spans="3:6" x14ac:dyDescent="0.45">
@@ -20849,13 +20789,13 @@
         <v>63</v>
       </c>
       <c r="D74" s="6">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E74" s="6">
         <v>2</v>
       </c>
       <c r="F74" s="6">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="75" spans="3:6" x14ac:dyDescent="0.45">
@@ -20863,13 +20803,13 @@
         <v>64</v>
       </c>
       <c r="D75" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E75" s="7">
         <v>2</v>
       </c>
       <c r="F75" s="7">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="76" spans="3:6" x14ac:dyDescent="0.45">
@@ -20877,13 +20817,13 @@
         <v>65</v>
       </c>
       <c r="D76" s="6">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E76" s="6">
         <v>2</v>
       </c>
       <c r="F76" s="6">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77" spans="3:6" x14ac:dyDescent="0.45">
@@ -20891,13 +20831,13 @@
         <v>66</v>
       </c>
       <c r="D77" s="7">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E77" s="7">
         <v>2</v>
       </c>
       <c r="F77" s="7">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="78" spans="3:6" x14ac:dyDescent="0.45">
@@ -20905,13 +20845,13 @@
         <v>67</v>
       </c>
       <c r="D78" s="6">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E78" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F78" s="6">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="79" spans="3:6" x14ac:dyDescent="0.45">
@@ -20919,13 +20859,13 @@
         <v>68</v>
       </c>
       <c r="D79" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E79" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F79" s="7">
-        <v>43</v>
+        <v>61</v>
       </c>
     </row>
     <row r="80" spans="3:6" x14ac:dyDescent="0.45">
@@ -20933,13 +20873,13 @@
         <v>69</v>
       </c>
       <c r="D80" s="6">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E80" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F80" s="6">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="81" spans="3:6" x14ac:dyDescent="0.45">
@@ -20947,13 +20887,13 @@
         <v>70</v>
       </c>
       <c r="D81" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E81" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F81" s="7">
-        <v>36</v>
+        <v>57</v>
       </c>
     </row>
     <row r="82" spans="3:6" x14ac:dyDescent="0.45">
@@ -20961,13 +20901,13 @@
         <v>71</v>
       </c>
       <c r="D82" s="6">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E82" s="6">
         <v>3</v>
       </c>
       <c r="F82" s="6">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="83" spans="3:6" x14ac:dyDescent="0.45">
@@ -20975,13 +20915,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="7">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E83" s="7">
         <v>3</v>
       </c>
       <c r="F83" s="7">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="84" spans="3:6" x14ac:dyDescent="0.45">
@@ -20989,13 +20929,13 @@
         <v>73</v>
       </c>
       <c r="D84" s="6">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E84" s="6">
         <v>3</v>
       </c>
       <c r="F84" s="6">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="85" spans="3:6" x14ac:dyDescent="0.45">
@@ -21003,13 +20943,13 @@
         <v>74</v>
       </c>
       <c r="D85" s="7">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E85" s="7">
         <v>3</v>
       </c>
       <c r="F85" s="7">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="86" spans="3:6" x14ac:dyDescent="0.45">
@@ -21017,13 +20957,13 @@
         <v>75</v>
       </c>
       <c r="D86" s="6">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E86" s="6">
         <v>3</v>
       </c>
       <c r="F86" s="6">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="87" spans="3:6" x14ac:dyDescent="0.45">
@@ -21031,13 +20971,13 @@
         <v>76</v>
       </c>
       <c r="D87" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E87" s="7">
         <v>3</v>
       </c>
       <c r="F87" s="7">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="88" spans="3:6" x14ac:dyDescent="0.45">
@@ -21045,84 +20985,39 @@
         <v>77</v>
       </c>
       <c r="D88" s="6">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E88" s="6">
         <v>3</v>
       </c>
       <c r="F88" s="6">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="89" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C89">
-        <v>78</v>
-      </c>
-      <c r="D89" s="7">
-        <v>14</v>
-      </c>
-      <c r="E89" s="7">
-        <v>3</v>
-      </c>
-      <c r="F89" s="7">
-        <v>51</v>
-      </c>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
     </row>
     <row r="90" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C90">
-        <v>79</v>
-      </c>
-      <c r="D90" s="6">
-        <v>13</v>
-      </c>
-      <c r="E90" s="6">
-        <v>3</v>
-      </c>
-      <c r="F90" s="6">
-        <v>49</v>
-      </c>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
     </row>
     <row r="91" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C91">
-        <v>80</v>
-      </c>
-      <c r="D91" s="7">
-        <v>13</v>
-      </c>
-      <c r="E91" s="7">
-        <v>3</v>
-      </c>
-      <c r="F91" s="7">
-        <v>47</v>
-      </c>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
     </row>
     <row r="92" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C92">
-        <v>81</v>
-      </c>
-      <c r="D92" s="6">
-        <v>12</v>
-      </c>
-      <c r="E92" s="6">
-        <v>3</v>
-      </c>
-      <c r="F92" s="6">
-        <v>44</v>
-      </c>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
     </row>
     <row r="93" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C93">
-        <v>82</v>
-      </c>
-      <c r="D93" s="7">
-        <v>12</v>
-      </c>
-      <c r="E93" s="7">
-        <v>3</v>
-      </c>
-      <c r="F93" s="7">
-        <v>44</v>
-      </c>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25750,8 +25645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91AEC9DA-F92B-4EE9-B045-2B954771AEDB}">
   <dimension ref="Q2:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T108" sqref="T108"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V75" sqref="V75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -30658,7 +30553,7 @@
   <dimension ref="A1:G83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -30992,11 +30887,9 @@
         <v>0</v>
       </c>
       <c r="F28" s="6">
-        <v>80</v>
-      </c>
-      <c r="G28" s="9">
         <v>66</v>
       </c>
+      <c r="G28" s="9"/>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C29">

--- a/RobotSimulation/Assets/ExportData/BuildDataSets/Results Analysis.xlsx
+++ b/RobotSimulation/Assets/ExportData/BuildDataSets/Results Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivo Tedbury\Documents\GitHub\ac18work\RobotSimulation\Assets\ExportData\BuildDataSets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9AD7142-51C6-40FB-94D1-27C827695A03}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B472845-B25E-4FF1-B5EA-92A1FB2509B0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8205" windowHeight="3563" firstSheet="3" activeTab="11" xr2:uid="{4AE5023F-DC92-4E99-A783-92CF7B37D1E3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8205" windowHeight="3563" xr2:uid="{4AE5023F-DC92-4E99-A783-92CF7B37D1E3}"/>
   </bookViews>
   <sheets>
     <sheet name="WallStretcher" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="39">
   <si>
     <t>totalBricks</t>
   </si>
@@ -122,12 +122,6 @@
     <t>Stack</t>
   </si>
   <si>
-    <t>Bond Types</t>
-  </si>
-  <si>
-    <t>Structure Forms</t>
-  </si>
-  <si>
     <t>Brick</t>
   </si>
   <si>
@@ -147,6 +141,18 @@
   </si>
   <si>
     <t>Tall Tower (Distance)</t>
+  </si>
+  <si>
+    <t>Different Wall Bond Build Times</t>
+  </si>
+  <si>
+    <t>Different Structure Form Build Times</t>
+  </si>
+  <si>
+    <t>perhour total</t>
+  </si>
+  <si>
+    <t>perhour useful</t>
   </si>
 </sst>
 </file>
@@ -416,6 +422,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-62A8-42F6-988B-80DBCBCEB5F9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -621,6 +632,656 @@
           <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Straight Line Bricks Used</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-5FDC-4832-838A-98C600094292}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-5FDC-4832-838A-98C600094292}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-2DB5-4E3B-B7B7-626D23450DF8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF6464"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-5FDC-4832-838A-98C600094292}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>StraightLine!$A$5:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>targetBricksFull</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>targetBricksHalf</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>auxBricksFull</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>auxBricksHalf</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>StraightLine!$B$5:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5FDC-4832-838A-98C600094292}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Tall Tower Bricks Used</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-5FDC-4832-838A-98C600094292}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-5FDC-4832-838A-98C600094292}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-62A8-42F6-988B-80DBCBCEB5F9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF6464"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-5FDC-4832-838A-98C600094292}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>TallTower!$A$5:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>targetBricksFull</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>targetBricksHalf</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>auxBricksFull</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>auxBricksHalf</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TallTower!$B$5:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5FDC-4832-838A-98C600094292}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1306,9 +1967,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.70122932822302253"/>
-          <c:y val="0.33773661730305793"/>
-          <c:w val="0.27315861676752673"/>
+          <c:x val="0.72353197066199171"/>
+          <c:y val="0.33773659313349652"/>
+          <c:w val="0.27646802933800824"/>
           <c:h val="0.43715840556991736"/>
         </c:manualLayout>
       </c:layout>
@@ -1515,7 +2176,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Bond Types</c:v>
+                  <c:v>Different Wall Bond Build Times</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1570,7 +2231,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Bond Types</c:v>
+                  <c:v>Different Wall Bond Build Times</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1623,7 +2284,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Bond Types</c:v>
+                  <c:v>Different Wall Bond Build Times</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1678,7 +2339,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Bond Types</c:v>
+                  <c:v>Different Wall Bond Build Times</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1733,7 +2394,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Bond Types</c:v>
+                  <c:v>Different Wall Bond Build Times</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2160,7 +2821,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Structure Forms</c:v>
+                  <c:v>Different Structure Form Build Times</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2215,7 +2876,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Structure Forms</c:v>
+                  <c:v>Different Structure Form Build Times</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2270,7 +2931,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Structure Forms</c:v>
+                  <c:v>Different Structure Form Build Times</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2325,7 +2986,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Structure Forms</c:v>
+                  <c:v>Different Structure Form Build Times</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2380,7 +3041,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Structure Forms</c:v>
+                  <c:v>Different Structure Form Build Times</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2435,7 +3096,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Structure Forms</c:v>
+                  <c:v>Different Structure Form Build Times</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14483,6 +15144,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1038972320"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
@@ -14613,6 +15275,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1038968056"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
@@ -14738,6 +15401,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1396250400"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -14836,7 +15500,517 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Short Tower Bricks Used</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.33560986722501734"/>
+          <c:y val="2.835444846690623E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.34801308983435963"/>
+          <c:y val="0.1849510331428865"/>
+          <c:w val="0.20427775893521619"/>
+          <c:h val="0.51343133219895454"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-5FDC-4832-838A-98C600094292}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-5FDC-4832-838A-98C600094292}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-2DB5-4E3B-B7B7-626D23450DF8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF6464"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-5FDC-4832-838A-98C600094292}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>ShortTower!$A$5:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>targetBricksFull</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>targetBricksHalf</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>auxBricksFull</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>auxBricksHalf</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ShortTower!$B$5:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5FDC-4832-838A-98C600094292}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.8824207423325909E-2"/>
+          <c:y val="0.77576017194411373"/>
+          <c:w val="0.75442895887687889"/>
+          <c:h val="0.14637842945304658"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -15088,7 +16262,1085 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -19199,20 +21451,539 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>31936</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>363269</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>161923</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>99171</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>430504</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>14285</xdr:rowOff>
+      <xdr:rowOff>19047</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19239,16 +22010,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>20729</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>347300</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>161923</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>87964</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>414535</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>14285</xdr:rowOff>
+      <xdr:rowOff>19047</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19275,16 +22046,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>4762</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>340857</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>5041</xdr:rowOff>
+      <xdr:rowOff>9803</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>71997</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>408092</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>31935</xdr:rowOff>
+      <xdr:rowOff>36697</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19484,6 +22255,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>134347</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161923</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>68036</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="Chart 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89CF1AC6-C67E-4DCB-BBB4-8A39125D9E73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>275592</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>21424</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>360440</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>46909</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="Chart 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31915C90-CBBB-4873-8CAD-E81DB40A1038}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>143952</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>4636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>152604</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>37416</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Chart 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC6F1D7E-8680-4CEE-8918-632A75494398}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -19789,10 +22668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D30613F6-0812-49FA-A990-74A23FB47DEB}">
-  <dimension ref="A1:H93"/>
+  <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -19800,7 +22679,7 @@
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -19808,7 +22687,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -19816,7 +22695,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -19824,7 +22703,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -19832,7 +22711,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -19840,7 +22719,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -19848,23 +22727,37 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J8">
+        <f>105/H9</f>
+        <v>181.36279261231573</v>
+      </c>
+      <c r="K8">
+        <f>B4/H9</f>
+        <v>94.999558035022531</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -19876,35 +22769,35 @@
         <v>7.0576769444444443</v>
       </c>
       <c r="D9">
-        <f>B9*110/85</f>
-        <v>32880.471411764702</v>
+        <f>B9*105/80</f>
+        <v>33347.523562499999</v>
       </c>
       <c r="E9">
         <f>D9/4</f>
-        <v>8220.1178529411754</v>
+        <v>8336.8808906249997</v>
       </c>
       <c r="F9">
         <f>E9/4</f>
-        <v>2055.0294632352939</v>
+        <v>2084.2202226562499</v>
       </c>
       <c r="G9">
         <f>F9/60</f>
-        <v>34.250491053921564</v>
+        <v>34.737003710937501</v>
       </c>
       <c r="H9">
         <f>F9/3600</f>
-        <v>0.57084151756535939</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+        <v>0.57895006184895836</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="C10">
-        <f>0.72 *60</f>
-        <v>43.199999999999996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+        <f>0.0576769 *60</f>
+        <v>3.4606140000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
@@ -19916,7 +22809,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="C12">
         <v>1</v>
       </c>
@@ -19930,7 +22823,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="C13">
         <v>2</v>
       </c>
@@ -19944,7 +22837,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="C14">
         <v>3</v>
       </c>
@@ -19958,7 +22851,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="C15">
         <v>4</v>
       </c>
@@ -19972,7 +22865,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="C16">
         <v>5</v>
       </c>
@@ -21108,15 +24001,15 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
@@ -22410,15 +25303,15 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
@@ -25645,20 +28538,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91AEC9DA-F92B-4EE9-B045-2B954771AEDB}">
   <dimension ref="Q2:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V75" sqref="V75"/>
+    <sheetView topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="2" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q3" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="17:17" x14ac:dyDescent="0.45">
@@ -25776,7 +28669,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
@@ -27011,7 +29904,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
@@ -28288,7 +31181,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
@@ -29397,7 +32290,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
@@ -30632,15 +33525,15 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
@@ -31750,7 +34643,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
@@ -32859,7 +35752,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
@@ -33968,7 +36861,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
